--- a/rhla_analysis/rhla1_3_zipf_result/k4.xlsx
+++ b/rhla_analysis/rhla1_3_zipf_result/k4.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2020655166859956</v>
+        <v>0.2020655166859977</v>
       </c>
       <c r="B2" t="n">
         <v>8.43019084302416</v>
@@ -466,12 +466,12 @@
         <v>0.0907928388746803</v>
       </c>
       <c r="D2" t="n">
-        <v>41.72008654066616</v>
+        <v>41.72008654066574</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2373125354615546</v>
+        <v>0.2373125354615559</v>
       </c>
       <c r="B3" t="n">
         <v>7.537727949518115</v>
@@ -480,12 +480,12 @@
         <v>0.08780903665814152</v>
       </c>
       <c r="D3" t="n">
-        <v>31.76287310258522</v>
+        <v>31.76287310258505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1645025645957373</v>
+        <v>0.1645025645957367</v>
       </c>
       <c r="B4" t="n">
         <v>4.077549626144539</v>
@@ -494,7 +494,7 @@
         <v>0.07374254049445865</v>
       </c>
       <c r="D4" t="n">
-        <v>24.7871492834477</v>
+        <v>24.78714928344779</v>
       </c>
     </row>
     <row r="5">
@@ -502,32 +502,32 @@
         <v>0.1425269377450265</v>
       </c>
       <c r="B5" t="n">
-        <v>15.94945458296019</v>
+        <v>15.9494545829602</v>
       </c>
       <c r="C5" t="n">
         <v>0.06180733162830349</v>
       </c>
       <c r="D5" t="n">
-        <v>111.904842939185</v>
+        <v>111.9048429391851</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1924487473306921</v>
+        <v>0.1924487473306905</v>
       </c>
       <c r="B6" t="n">
-        <v>3.907742046272748</v>
+        <v>3.907742046272747</v>
       </c>
       <c r="C6" t="n">
         <v>0.0763000852514919</v>
       </c>
       <c r="D6" t="n">
-        <v>20.3053649372834</v>
+        <v>20.30536493728357</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1126989224301563</v>
+        <v>0.1126989224301569</v>
       </c>
       <c r="B7" t="n">
         <v>4.752255111845788</v>
@@ -536,12 +536,12 @@
         <v>0.07075873827791987</v>
       </c>
       <c r="D7" t="n">
-        <v>42.1677067479588</v>
+        <v>42.16770674795858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.3781523430390651</v>
+        <v>0.3781523430390683</v>
       </c>
       <c r="B8" t="n">
         <v>13.87804862012502</v>
@@ -550,12 +550,12 @@
         <v>0.07885763000852515</v>
       </c>
       <c r="D8" t="n">
-        <v>36.69962351308596</v>
+        <v>36.69962351308566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1390936889153221</v>
+        <v>0.1390936889153223</v>
       </c>
       <c r="B9" t="n">
         <v>3.59623967627825</v>
@@ -564,35 +564,35 @@
         <v>0.0763000852514919</v>
       </c>
       <c r="D9" t="n">
-        <v>25.85480120861257</v>
+        <v>25.85480120861253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1724187539818826</v>
+        <v>0.172418753981883</v>
       </c>
       <c r="B10" t="n">
-        <v>6.798246218877367</v>
+        <v>6.798246218877368</v>
       </c>
       <c r="C10" t="n">
         <v>0.06990622335890878</v>
       </c>
       <c r="D10" t="n">
-        <v>39.4286935839457</v>
+        <v>39.42869358394562</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2825817123046983</v>
+        <v>0.2825817123046994</v>
       </c>
       <c r="B11" t="n">
-        <v>8.596443053095038</v>
+        <v>8.59644305309504</v>
       </c>
       <c r="C11" t="n">
         <v>0.07331628303495311</v>
       </c>
       <c r="D11" t="n">
-        <v>30.42108770232727</v>
+        <v>30.42108770232715</v>
       </c>
     </row>
   </sheetData>
